--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439132.03569889</v>
+        <v>452858.3938363081</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
         <v>491565.8032302229</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="F4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="G4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="H4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="I4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="J4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="K4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="L4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="M4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="N4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="O4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="P4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27039.693787547</v>
+        <v>27039.6937875471</v>
       </c>
       <c r="C6" t="n">
-        <v>27039.69378754724</v>
+        <v>27039.6937875471</v>
       </c>
       <c r="D6" t="n">
-        <v>27039.69378754706</v>
+        <v>27039.69378754704</v>
       </c>
       <c r="E6" t="n">
-        <v>-50494.50632805182</v>
+        <v>-50494.50632805188</v>
       </c>
       <c r="F6" t="n">
         <v>82605.49367194819</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>452858.3938363081</v>
+        <v>369072.9920746834</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27039.6937875471</v>
+        <v>26995.55800886603</v>
       </c>
       <c r="C6" t="n">
-        <v>27039.6937875471</v>
+        <v>26995.55800886603</v>
       </c>
       <c r="D6" t="n">
-        <v>27039.69378754704</v>
+        <v>26995.55800886603</v>
       </c>
       <c r="E6" t="n">
-        <v>-50494.50632805188</v>
+        <v>-65304.52316716578</v>
       </c>
       <c r="F6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="G6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="H6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="I6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="J6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="K6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="L6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="M6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="N6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="O6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
       <c r="P6" t="n">
-        <v>82605.49367194819</v>
+        <v>67795.47683283429</v>
       </c>
     </row>
   </sheetData>
